--- a/data/Budget_Data/2002_Budget.xlsx
+++ b/data/Budget_Data/2002_Budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elope\Documents\UCD\Homeworks\Project 1\project-national-park-performance\data\Budget_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elope\Desktop\project-national-park-performance\data\Budget_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2414F6F1-D1A2-4B59-92A1-EC99753F7BDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47446FF-7294-49B1-B149-6BD757B6F208}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5946B251-4F2D-4499-BE50-E656E0DFAE95}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5946B251-4F2D-4499-BE50-E656E0DFAE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
